--- a/data/trans_dic/P18_6_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_6_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>84,46%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>88,41%</t>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10,13%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>12,9%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 18,73</t>
+          <t>0,0; 30,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 22,27</t>
+          <t>2,29; 32,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 17,81</t>
+          <t>6,06; 24,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,71</t>
+          <t>2,61; 7,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,88; 95,9</t>
+          <t>4,16; 14,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,78; 20,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 13,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,51</t>
+          <t>13,04; 28,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,49; 19,17</t>
+          <t>5,1; 14,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>79,41; 88,39</t>
+          <t>10,04; 18,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 16,91</t>
+          <t>12,64; 20,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 14,29</t>
+          <t>12,82; 26,11</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 14,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 13,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>84,83; 90,74</t>
+          <t>9,35; 25,38</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 22,6</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9,55; 19,07</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8,73; 13,44</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 19,68</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>83,74%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>8,94%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>10,16%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>14,19%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,89</t>
+          <t>3,99; 9,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,77</t>
+          <t>2,71; 7,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,11</t>
+          <t>3,28; 6,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,07</t>
+          <t>5,95; 12,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,46; 94,61</t>
+          <t>7,19; 13,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,3; 18,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,44; 15,53</t>
+          <t>12,25; 20,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,53; 14,88</t>
+          <t>8,2; 16,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>80,31; 86,62</t>
+          <t>10,38; 15,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 12,91</t>
+          <t>10,02; 16,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 9,36</t>
+          <t>14,55; 23,01</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,08; 10,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 12,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>86,44; 90,14</t>
+          <t>9,0; 14,16</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 10,77</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7,42; 10,81</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>8,34; 12,89</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 16,95</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>11,23%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>12,48%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 14,56</t>
+          <t>4,6; 13,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,62</t>
+          <t>3,46; 10,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 10,88</t>
+          <t>3,95; 9,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,78</t>
+          <t>4,17; 9,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,77; 95,86</t>
+          <t>7,04; 13,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 16,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 10,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,5</t>
+          <t>10,54; 19,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,46</t>
+          <t>3,83; 9,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>85,43; 92,83</t>
+          <t>11,48; 17,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 14,16</t>
+          <t>9,34; 14,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,46</t>
+          <t>11,46; 18,54</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 12,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>88,28; 93,57</t>
+          <t>8,2; 14,55</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 8,82</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8,47; 12,72</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 10,79</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>9,94; 15,23</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>85,35%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>89,01%</t>
+          <t>11,34%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,54</t>
+          <t>6,51; 11,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,28</t>
+          <t>3,0; 7,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,47</t>
+          <t>3,33; 9,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,78; 94,29</t>
+          <t>4,94; 10,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 16,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,35; 14,74</t>
+          <t>12,22; 16,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 14,39</t>
+          <t>6,53; 11,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,95; 87,39</t>
+          <t>7,73; 14,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,34; 12,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 8,96</t>
+          <t>11,42; 19,35</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 10,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>8,64; 11,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>87,4; 90,23</t>
+          <t>9,6; 13,05</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 8,59</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 10,64</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 13,46</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,13%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>10,0%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,21; 10,21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 8,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 8,82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,4; 8,83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 11,08</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 17,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,73; 11,12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 14,56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,48; 15,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,46; 18,84</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,32; 12,85</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 8,87</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>8,67; 11,09</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 11,29</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>11,42; 14,27</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido tranquila en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19769</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38404</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61086</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33825</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>39862</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50178</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36917</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>88076</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>144034</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>116550</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>69947</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>75320</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>149162</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>177859</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>156412</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 67047</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7621; 107198</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31774; 126815</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18768; 54876</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18496; 66580</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34126; 73962</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20954; 57939</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>63426; 116486</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>112467; 180928</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>81412; 165845</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>44842; 121725</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>40642; 168110</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>110403; 220537</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>140555; 216306</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>115907; 212576</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>41935</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42449</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>58068</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>129866</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>109588</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>115167</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>116087</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>159313</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>186577</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>195310</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>157102</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>158537</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>217381</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>316444</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>304898</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25812; 63910</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25286; 67018</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>39418; 82181</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>96046; 193700</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>76978; 149564</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>86764; 147582</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>82048; 164070</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>127549; 193941</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>150475; 248508</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>156795; 248045</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>122018; 191914</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>117386; 208182</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>180335; 262820</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>259952; 401772</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>250296; 364188</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34998</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>43038</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51879</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>66751</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>82393</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>75852</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>47875</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>133983</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>136064</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>132676</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>110850</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>90913</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>185862</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>202815</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>215069</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20941; 60358</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24752; 73144</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33372; 76559</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>45258; 99111</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>58125; 113987</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56058; 101425</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29278; 71442</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>107623; 165312</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>108653; 166328</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>102770; 166293</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>80946; 143665</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>63880; 130618</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>151058; 226796</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>166997; 242671</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>171328; 262356</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>176176</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>68808</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>49433</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>81958</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>296610</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>124716</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>81717</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>144419</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>472786</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>193525</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>131150</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>226377</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>136611; 237345</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>43531; 101498</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>28563; 84012</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54061; 117530</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>253027; 348892</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>90980; 157923</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>58854; 111430</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>111242; 188577</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>400301; 544305</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>151920; 244327</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>98967; 172294</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>180155; 278490</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>326.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>272879</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>192699</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>220466</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>230443</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>313801</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>537807</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>325596</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>463089</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>466675</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>588954</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>810685</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>518294</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>683556</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>697118</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>902756</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>212475; 349049</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>144323; 297093</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>174152; 302676</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>184541; 301807</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>257888; 380820</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>475619; 608946</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>275913; 396831</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>405621; 518439</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>408177; 536833</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>518435; 675165</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>721801; 898409</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>440942; 620718</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>606112; 775270</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>619952; 787406</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>801429; 1001659</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
